--- a/Dataset_inf.xlsx
+++ b/Dataset_inf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27950" windowHeight="12280"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
@@ -1483,7 +1483,7 @@
     <t>Neil W. Kirk et al.</t>
   </si>
   <si>
-    <t>British Journal of Psycholog y</t>
+    <t>British Journal of Psycholog</t>
   </si>
   <si>
     <t>Slef</t>
@@ -2329,13 +2329,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
@@ -2596,15 +2589,15 @@
   <sheetPr/>
   <dimension ref="A1:KJ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F39" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ30" sqref="AJ30"/>
+      <selection pane="bottomRight" activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="3.625" customWidth="1"/>
@@ -2643,7 +2636,7 @@
     <col min="38" max="38" width="68.6416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.5" spans="1:38">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2757,7 +2750,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" ht="15.5" spans="1:296">
+    <row r="2" ht="15.75" spans="1:296">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
@@ -3122,7 +3115,7 @@
       <c r="KI2" s="5"/>
       <c r="KJ2" s="5"/>
     </row>
-    <row r="3" ht="15.5" spans="1:296">
+    <row r="3" ht="15.75" spans="1:296">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
@@ -3483,7 +3476,7 @@
       <c r="KI3" s="5"/>
       <c r="KJ3" s="5"/>
     </row>
-    <row r="4" ht="15.5" spans="1:296">
+    <row r="4" ht="15.75" spans="1:296">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -3844,7 +3837,7 @@
       <c r="KI4" s="5"/>
       <c r="KJ4" s="5"/>
     </row>
-    <row r="5" ht="15.5" spans="1:296">
+    <row r="5" ht="15.75" spans="1:296">
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
@@ -4574,7 +4567,7 @@
       <c r="KI6" s="5"/>
       <c r="KJ6" s="5"/>
     </row>
-    <row r="7" ht="15.5" spans="1:296">
+    <row r="7" ht="15.75" spans="1:296">
       <c r="A7" s="5"/>
       <c r="B7" s="5">
         <v>6</v>
@@ -4935,7 +4928,7 @@
       <c r="KI7" s="5"/>
       <c r="KJ7" s="5"/>
     </row>
-    <row r="8" ht="31" spans="1:296">
+    <row r="8" ht="31.5" spans="1:296">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -5300,7 +5293,7 @@
       <c r="KI8" s="5"/>
       <c r="KJ8" s="5"/>
     </row>
-    <row r="9" ht="62" spans="1:296">
+    <row r="9" ht="63" spans="1:296">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>8</v>
@@ -5664,7 +5657,7 @@
       <c r="KI9" s="5"/>
       <c r="KJ9" s="5"/>
     </row>
-    <row r="10" ht="15.5" spans="1:296">
+    <row r="10" ht="15.75" spans="1:296">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>9</v>
@@ -6025,7 +6018,7 @@
       <c r="KI10" s="5"/>
       <c r="KJ10" s="5"/>
     </row>
-    <row r="11" ht="31" spans="1:296">
+    <row r="11" ht="31.5" spans="1:296">
       <c r="A11" s="5" t="s">
         <v>123</v>
       </c>
@@ -6394,7 +6387,7 @@
       <c r="KI11" s="5"/>
       <c r="KJ11" s="5"/>
     </row>
-    <row r="12" ht="31" spans="1:296">
+    <row r="12" ht="31.5" spans="1:296">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>11</v>
@@ -6759,7 +6752,7 @@
       <c r="KI12" s="5"/>
       <c r="KJ12" s="5"/>
     </row>
-    <row r="13" ht="46.5" spans="1:296">
+    <row r="13" ht="47.25" spans="1:296">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>12</v>
@@ -7128,7 +7121,7 @@
       <c r="KI13" s="5"/>
       <c r="KJ13" s="5"/>
     </row>
-    <row r="14" ht="28" spans="1:296">
+    <row r="14" ht="28.5" spans="1:296">
       <c r="A14" s="5" t="s">
         <v>155</v>
       </c>
@@ -7498,7 +7491,7 @@
       <c r="KI14" s="5"/>
       <c r="KJ14" s="5"/>
     </row>
-    <row r="15" ht="28" spans="1:296">
+    <row r="15" ht="28.5" spans="1:296">
       <c r="A15" s="5" t="s">
         <v>155</v>
       </c>
@@ -7865,7 +7858,7 @@
       <c r="KI15" s="5"/>
       <c r="KJ15" s="5"/>
     </row>
-    <row r="16" ht="15.5" spans="1:296">
+    <row r="16" ht="15.75" spans="1:296">
       <c r="A16" s="5" t="s">
         <v>168</v>
       </c>
@@ -8236,7 +8229,7 @@
       <c r="KI16" s="5"/>
       <c r="KJ16" s="5"/>
     </row>
-    <row r="17" ht="15.5" spans="1:296">
+    <row r="17" ht="15.75" spans="1:296">
       <c r="A17" s="5"/>
       <c r="B17" s="5">
         <v>16</v>
@@ -8599,7 +8592,7 @@
       <c r="KI17" s="5"/>
       <c r="KJ17" s="5"/>
     </row>
-    <row r="18" ht="15.5" spans="1:296">
+    <row r="18" ht="15.75" spans="1:296">
       <c r="A18" s="5"/>
       <c r="B18" s="5">
         <v>17</v>
@@ -8964,7 +8957,7 @@
       <c r="KI18" s="5"/>
       <c r="KJ18" s="5"/>
     </row>
-    <row r="19" ht="15.5" spans="1:296">
+    <row r="19" ht="15.75" spans="1:296">
       <c r="A19" s="5"/>
       <c r="B19" s="5">
         <v>18</v>
@@ -9325,7 +9318,7 @@
       <c r="KI19" s="5"/>
       <c r="KJ19" s="5"/>
     </row>
-    <row r="20" ht="15.5" spans="1:296">
+    <row r="20" ht="15.75" spans="1:296">
       <c r="A20" s="5"/>
       <c r="B20" s="5">
         <v>19</v>
@@ -9686,7 +9679,7 @@
       <c r="KI20" s="5"/>
       <c r="KJ20" s="5"/>
     </row>
-    <row r="21" ht="15.5" spans="1:296">
+    <row r="21" ht="15.75" spans="1:296">
       <c r="A21" s="5"/>
       <c r="B21" s="5">
         <v>20</v>
@@ -10047,7 +10040,7 @@
       <c r="KI21" s="5"/>
       <c r="KJ21" s="5"/>
     </row>
-    <row r="22" ht="15.5" spans="1:296">
+    <row r="22" ht="15.75" spans="1:296">
       <c r="A22" s="5"/>
       <c r="B22" s="5">
         <v>21</v>
@@ -10410,7 +10403,7 @@
       <c r="KI22" s="5"/>
       <c r="KJ22" s="5"/>
     </row>
-    <row r="23" ht="15.5" spans="1:296">
+    <row r="23" ht="15.75" spans="1:296">
       <c r="A23" s="5"/>
       <c r="B23" s="5">
         <v>22</v>
@@ -10769,7 +10762,7 @@
       <c r="KI23" s="5"/>
       <c r="KJ23" s="5"/>
     </row>
-    <row r="24" ht="15.5" spans="1:296">
+    <row r="24" ht="15.75" spans="1:296">
       <c r="A24" s="5"/>
       <c r="B24" s="5">
         <v>23</v>
@@ -11128,7 +11121,7 @@
       <c r="KI24" s="5"/>
       <c r="KJ24" s="5"/>
     </row>
-    <row r="25" ht="15.5" spans="1:296">
+    <row r="25" ht="15.75" spans="1:296">
       <c r="A25" s="5"/>
       <c r="B25" s="5">
         <v>24</v>
@@ -11491,7 +11484,7 @@
       <c r="KI25" s="5"/>
       <c r="KJ25" s="5"/>
     </row>
-    <row r="26" ht="15.5" spans="1:296">
+    <row r="26" ht="15.75" spans="1:296">
       <c r="A26" s="5"/>
       <c r="B26" s="5">
         <v>25</v>
@@ -11852,7 +11845,7 @@
       <c r="KI26" s="5"/>
       <c r="KJ26" s="5"/>
     </row>
-    <row r="27" ht="15.5" spans="1:296">
+    <row r="27" ht="15.75" spans="1:296">
       <c r="A27" s="5"/>
       <c r="B27" s="5">
         <v>26</v>
@@ -12213,7 +12206,7 @@
       <c r="KI27" s="5"/>
       <c r="KJ27" s="5"/>
     </row>
-    <row r="28" ht="31" spans="1:296">
+    <row r="28" ht="31.5" spans="1:296">
       <c r="A28" s="5"/>
       <c r="B28" s="5">
         <v>27</v>
@@ -12947,7 +12940,7 @@
       <c r="KI29" s="5"/>
       <c r="KJ29" s="5"/>
     </row>
-    <row r="30" ht="15.5" spans="1:296">
+    <row r="30" ht="15.75" spans="1:296">
       <c r="A30" s="5" t="s">
         <v>248</v>
       </c>
@@ -13657,7 +13650,7 @@
       <c r="KI31" s="5"/>
       <c r="KJ31" s="5"/>
     </row>
-    <row r="32" ht="15.5" spans="1:296">
+    <row r="32" ht="15.75" spans="1:296">
       <c r="A32" s="5" t="s">
         <v>258</v>
       </c>
@@ -14002,7 +13995,7 @@
       <c r="KI32" s="5"/>
       <c r="KJ32" s="5"/>
     </row>
-    <row r="33" ht="15.5" spans="1:296">
+    <row r="33" ht="15.75" spans="1:296">
       <c r="A33" s="5" t="s">
         <v>258</v>
       </c>
@@ -14347,7 +14340,7 @@
       <c r="KI33" s="5"/>
       <c r="KJ33" s="5"/>
     </row>
-    <row r="34" ht="15.5" spans="1:296">
+    <row r="34" ht="15.75" spans="1:296">
       <c r="A34" s="5" t="s">
         <v>267</v>
       </c>
@@ -14696,7 +14689,7 @@
       <c r="KI34" s="5"/>
       <c r="KJ34" s="5"/>
     </row>
-    <row r="35" ht="15.5" spans="1:296">
+    <row r="35" ht="15.75" spans="1:296">
       <c r="A35" s="5" t="s">
         <v>276</v>
       </c>
@@ -15045,7 +15038,7 @@
       <c r="KI35" s="5"/>
       <c r="KJ35" s="5"/>
     </row>
-    <row r="36" ht="15.5" spans="1:296">
+    <row r="36" ht="15.75" spans="1:296">
       <c r="A36" s="5" t="s">
         <v>279</v>
       </c>
@@ -15394,7 +15387,7 @@
       <c r="KI36" s="5"/>
       <c r="KJ36" s="5"/>
     </row>
-    <row r="37" ht="15.5" spans="1:296">
+    <row r="37" ht="15.75" spans="1:296">
       <c r="A37" s="5" t="s">
         <v>282</v>
       </c>
@@ -15742,7 +15735,7 @@
       <c r="KI37" s="5"/>
       <c r="KJ37" s="5"/>
     </row>
-    <row r="38" ht="15.5" spans="1:296">
+    <row r="38" ht="15.75" spans="1:296">
       <c r="A38" s="5"/>
       <c r="B38" s="5">
         <v>37</v>
@@ -16107,7 +16100,7 @@
       <c r="KI38" s="5"/>
       <c r="KJ38" s="5"/>
     </row>
-    <row r="39" ht="15.5" spans="1:296">
+    <row r="39" ht="15.75" spans="1:296">
       <c r="A39" s="5"/>
       <c r="B39" s="5">
         <v>38</v>
@@ -16472,7 +16465,7 @@
       <c r="KI39" s="5"/>
       <c r="KJ39" s="5"/>
     </row>
-    <row r="40" ht="62" spans="1:296">
+    <row r="40" ht="63" spans="1:296">
       <c r="A40" s="5"/>
       <c r="B40" s="5">
         <v>39</v>
@@ -16843,7 +16836,7 @@
       <c r="KI40" s="5"/>
       <c r="KJ40" s="5"/>
     </row>
-    <row r="41" ht="15.5" spans="1:296">
+    <row r="41" ht="15.75" spans="1:296">
       <c r="A41" s="10" t="s">
         <v>313</v>
       </c>
@@ -17198,7 +17191,7 @@
       <c r="KI41" s="5"/>
       <c r="KJ41" s="5"/>
     </row>
-    <row r="42" ht="15.5" spans="1:296">
+    <row r="42" ht="15.75" spans="1:296">
       <c r="A42" s="5"/>
       <c r="B42" s="5">
         <v>41</v>
@@ -17567,7 +17560,7 @@
       <c r="KI42" s="5"/>
       <c r="KJ42" s="5"/>
     </row>
-    <row r="43" ht="15.5" spans="1:296">
+    <row r="43" ht="15.75" spans="1:296">
       <c r="A43" s="5"/>
       <c r="B43" s="5">
         <v>42</v>
@@ -17932,7 +17925,7 @@
       <c r="KI43" s="5"/>
       <c r="KJ43" s="5"/>
     </row>
-    <row r="44" ht="15.5" spans="1:296">
+    <row r="44" ht="15.75" spans="1:296">
       <c r="A44" s="5" t="s">
         <v>334</v>
       </c>
@@ -18299,7 +18292,7 @@
       <c r="KI44" s="5"/>
       <c r="KJ44" s="5"/>
     </row>
-    <row r="45" ht="15.5" spans="1:296">
+    <row r="45" ht="15.75" spans="1:296">
       <c r="A45" s="5"/>
       <c r="B45" s="5">
         <v>44</v>
@@ -18664,7 +18657,7 @@
       <c r="KI45" s="5"/>
       <c r="KJ45" s="5"/>
     </row>
-    <row r="46" ht="15.5" spans="1:296">
+    <row r="46" ht="15.75" spans="1:296">
       <c r="A46" s="5"/>
       <c r="B46" s="5">
         <v>45</v>
@@ -19025,7 +19018,7 @@
       <c r="KI46" s="5"/>
       <c r="KJ46" s="5"/>
     </row>
-    <row r="47" ht="15.5" spans="1:296">
+    <row r="47" ht="15.75" spans="1:296">
       <c r="A47" s="5"/>
       <c r="B47" s="5">
         <v>46</v>
@@ -19386,7 +19379,7 @@
       <c r="KI47" s="5"/>
       <c r="KJ47" s="5"/>
     </row>
-    <row r="48" ht="15.5" spans="1:296">
+    <row r="48" ht="15.75" spans="1:296">
       <c r="A48" s="5"/>
       <c r="B48" s="5">
         <v>47</v>
@@ -19745,7 +19738,7 @@
       <c r="KI48" s="5"/>
       <c r="KJ48" s="5"/>
     </row>
-    <row r="49" ht="31" spans="1:296">
+    <row r="49" ht="31.5" spans="1:296">
       <c r="A49" s="5"/>
       <c r="B49" s="5">
         <v>48</v>
@@ -20103,7 +20096,7 @@
       <c r="KI49" s="5"/>
       <c r="KJ49" s="5"/>
     </row>
-    <row r="50" ht="15.5" spans="1:296">
+    <row r="50" ht="15.75" spans="1:296">
       <c r="A50" s="5"/>
       <c r="B50" s="5">
         <v>49</v>
@@ -20463,7 +20456,7 @@
       <c r="KI50" s="5"/>
       <c r="KJ50" s="5"/>
     </row>
-    <row r="51" ht="15.5" spans="1:296">
+    <row r="51" ht="15.75" spans="1:296">
       <c r="A51" s="5"/>
       <c r="B51" s="5">
         <v>50</v>
@@ -20827,7 +20820,7 @@
       <c r="KI51" s="5"/>
       <c r="KJ51" s="5"/>
     </row>
-    <row r="52" ht="31" spans="1:296">
+    <row r="52" ht="31.5" spans="1:296">
       <c r="A52" s="5"/>
       <c r="B52" s="5">
         <v>51</v>
@@ -21183,7 +21176,7 @@
       <c r="KI52" s="5"/>
       <c r="KJ52" s="5"/>
     </row>
-    <row r="53" ht="15.5" spans="1:296">
+    <row r="53" ht="15.75" spans="1:296">
       <c r="A53" s="5"/>
       <c r="B53" s="5">
         <v>52</v>
@@ -21498,7 +21491,7 @@
       <c r="KI53" s="5"/>
       <c r="KJ53" s="5"/>
     </row>
-    <row r="54" ht="15.5" spans="1:296">
+    <row r="54" ht="15.75" spans="1:296">
       <c r="A54" s="5"/>
       <c r="B54" s="5">
         <v>53</v>
@@ -21852,7 +21845,7 @@
       <c r="KI54" s="5"/>
       <c r="KJ54" s="5"/>
     </row>
-    <row r="55" ht="15.5" spans="1:296">
+    <row r="55" ht="15.75" spans="1:296">
       <c r="A55" s="5"/>
       <c r="B55" s="5">
         <v>54</v>
@@ -22206,7 +22199,7 @@
       <c r="KI55" s="5"/>
       <c r="KJ55" s="5"/>
     </row>
-    <row r="56" ht="15.5" spans="1:296">
+    <row r="56" ht="15.75" spans="1:296">
       <c r="A56" s="5"/>
       <c r="B56" s="5">
         <v>55</v>
@@ -22526,7 +22519,7 @@
       <c r="KI56" s="5"/>
       <c r="KJ56" s="5"/>
     </row>
-    <row r="57" ht="15.5" spans="1:296">
+    <row r="57" ht="15.75" spans="1:296">
       <c r="A57" s="5"/>
       <c r="B57" s="5">
         <v>56</v>
@@ -22866,7 +22859,7 @@
       <c r="KI57" s="5"/>
       <c r="KJ57" s="5"/>
     </row>
-    <row r="58" ht="15.5" spans="1:296">
+    <row r="58" ht="15.75" spans="1:296">
       <c r="A58" s="5"/>
       <c r="B58" s="5">
         <v>57</v>
@@ -23172,7 +23165,7 @@
       <c r="KI58" s="5"/>
       <c r="KJ58" s="5"/>
     </row>
-    <row r="59" ht="15.5" spans="1:296">
+    <row r="59" ht="15.75" spans="1:296">
       <c r="A59" s="5"/>
       <c r="B59" s="5">
         <v>58</v>
@@ -23478,7 +23471,7 @@
       <c r="KI59" s="5"/>
       <c r="KJ59" s="5"/>
     </row>
-    <row r="60" ht="15.5" spans="1:296">
+    <row r="60" ht="15.75" spans="1:296">
       <c r="A60" s="5"/>
       <c r="B60" s="5">
         <v>59</v>
@@ -23782,7 +23775,7 @@
       <c r="KI60" s="5"/>
       <c r="KJ60" s="5"/>
     </row>
-    <row r="61" ht="15.5" spans="1:296">
+    <row r="61" ht="15.75" spans="1:296">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -24080,7 +24073,7 @@
       <c r="KI61" s="5"/>
       <c r="KJ61" s="5"/>
     </row>
-    <row r="62" ht="15.5" spans="1:296">
+    <row r="62" ht="15.75" spans="1:296">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -24378,7 +24371,7 @@
       <c r="KI62" s="5"/>
       <c r="KJ62" s="5"/>
     </row>
-    <row r="63" ht="15.5" spans="1:296">
+    <row r="63" ht="15.75" spans="1:296">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -24676,7 +24669,7 @@
       <c r="KI63" s="5"/>
       <c r="KJ63" s="5"/>
     </row>
-    <row r="64" ht="15.5" spans="1:296">
+    <row r="64" ht="15.75" spans="1:296">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -24974,7 +24967,7 @@
       <c r="KI64" s="5"/>
       <c r="KJ64" s="5"/>
     </row>
-    <row r="65" ht="15.5" spans="1:296">
+    <row r="65" ht="15.75" spans="1:296">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -25272,7 +25265,7 @@
       <c r="KI65" s="5"/>
       <c r="KJ65" s="5"/>
     </row>
-    <row r="66" ht="15.5" spans="1:296">
+    <row r="66" ht="15.75" spans="1:296">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -25570,7 +25563,7 @@
       <c r="KI66" s="5"/>
       <c r="KJ66" s="5"/>
     </row>
-    <row r="67" ht="15.5" spans="1:296">
+    <row r="67" ht="15.75" spans="1:296">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -25868,7 +25861,7 @@
       <c r="KI67" s="5"/>
       <c r="KJ67" s="5"/>
     </row>
-    <row r="68" ht="15.5" spans="1:37">
+    <row r="68" ht="15.75" spans="1:37">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -25886,7 +25879,7 @@
       <c r="R68" s="5"/>
       <c r="AK68" s="12"/>
     </row>
-    <row r="69" ht="15.5" spans="13:13">
+    <row r="69" ht="15.75" spans="13:13">
       <c r="M69" s="5"/>
     </row>
   </sheetData>

--- a/Dataset_inf.xlsx
+++ b/Dataset_inf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27950" windowHeight="12280"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="433">
   <si>
     <t>Note</t>
   </si>
@@ -1417,7 +1417,13 @@
     <t>Pu1</t>
   </si>
   <si>
+    <t>Wang et al.</t>
+  </si>
+  <si>
     <t>Wang_2016_EPHPP</t>
+  </si>
+  <si>
+    <t>CC BY 3.0</t>
   </si>
   <si>
     <t>Pu2E1</t>
@@ -2590,14 +2596,14 @@
   <dimension ref="A1:KJ69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M63" sqref="M63"/>
+      <selection pane="bottomRight" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="3.625" customWidth="1"/>
@@ -2636,7 +2642,7 @@
     <col min="38" max="38" width="68.6416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:38">
+    <row r="1" s="1" customFormat="1" ht="15.5" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2750,7 +2756,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:296">
+    <row r="2" ht="15.5" spans="1:296">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
@@ -3115,7 +3121,7 @@
       <c r="KI2" s="5"/>
       <c r="KJ2" s="5"/>
     </row>
-    <row r="3" ht="15.75" spans="1:296">
+    <row r="3" ht="15.5" spans="1:296">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
@@ -3476,7 +3482,7 @@
       <c r="KI3" s="5"/>
       <c r="KJ3" s="5"/>
     </row>
-    <row r="4" ht="15.75" spans="1:296">
+    <row r="4" ht="15.5" spans="1:296">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -3837,7 +3843,7 @@
       <c r="KI4" s="5"/>
       <c r="KJ4" s="5"/>
     </row>
-    <row r="5" ht="15.75" spans="1:296">
+    <row r="5" ht="15.5" spans="1:296">
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
@@ -4567,7 +4573,7 @@
       <c r="KI6" s="5"/>
       <c r="KJ6" s="5"/>
     </row>
-    <row r="7" ht="15.75" spans="1:296">
+    <row r="7" ht="15.5" spans="1:296">
       <c r="A7" s="5"/>
       <c r="B7" s="5">
         <v>6</v>
@@ -4928,7 +4934,7 @@
       <c r="KI7" s="5"/>
       <c r="KJ7" s="5"/>
     </row>
-    <row r="8" ht="31.5" spans="1:296">
+    <row r="8" ht="31" spans="1:296">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -5293,7 +5299,7 @@
       <c r="KI8" s="5"/>
       <c r="KJ8" s="5"/>
     </row>
-    <row r="9" ht="63" spans="1:296">
+    <row r="9" ht="62" spans="1:296">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>8</v>
@@ -5657,7 +5663,7 @@
       <c r="KI9" s="5"/>
       <c r="KJ9" s="5"/>
     </row>
-    <row r="10" ht="15.75" spans="1:296">
+    <row r="10" ht="15.5" spans="1:296">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>9</v>
@@ -6018,7 +6024,7 @@
       <c r="KI10" s="5"/>
       <c r="KJ10" s="5"/>
     </row>
-    <row r="11" ht="31.5" spans="1:296">
+    <row r="11" ht="31" spans="1:296">
       <c r="A11" s="5" t="s">
         <v>123</v>
       </c>
@@ -6387,7 +6393,7 @@
       <c r="KI11" s="5"/>
       <c r="KJ11" s="5"/>
     </row>
-    <row r="12" ht="31.5" spans="1:296">
+    <row r="12" ht="31" spans="1:296">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>11</v>
@@ -6752,7 +6758,7 @@
       <c r="KI12" s="5"/>
       <c r="KJ12" s="5"/>
     </row>
-    <row r="13" ht="47.25" spans="1:296">
+    <row r="13" ht="46.5" spans="1:296">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>12</v>
@@ -7121,7 +7127,7 @@
       <c r="KI13" s="5"/>
       <c r="KJ13" s="5"/>
     </row>
-    <row r="14" ht="28.5" spans="1:296">
+    <row r="14" ht="28" spans="1:296">
       <c r="A14" s="5" t="s">
         <v>155</v>
       </c>
@@ -7491,7 +7497,7 @@
       <c r="KI14" s="5"/>
       <c r="KJ14" s="5"/>
     </row>
-    <row r="15" ht="28.5" spans="1:296">
+    <row r="15" ht="28" spans="1:296">
       <c r="A15" s="5" t="s">
         <v>155</v>
       </c>
@@ -7858,7 +7864,7 @@
       <c r="KI15" s="5"/>
       <c r="KJ15" s="5"/>
     </row>
-    <row r="16" ht="15.75" spans="1:296">
+    <row r="16" ht="15.5" spans="1:296">
       <c r="A16" s="5" t="s">
         <v>168</v>
       </c>
@@ -8229,7 +8235,7 @@
       <c r="KI16" s="5"/>
       <c r="KJ16" s="5"/>
     </row>
-    <row r="17" ht="15.75" spans="1:296">
+    <row r="17" ht="15.5" spans="1:296">
       <c r="A17" s="5"/>
       <c r="B17" s="5">
         <v>16</v>
@@ -8592,7 +8598,7 @@
       <c r="KI17" s="5"/>
       <c r="KJ17" s="5"/>
     </row>
-    <row r="18" ht="15.75" spans="1:296">
+    <row r="18" ht="15.5" spans="1:296">
       <c r="A18" s="5"/>
       <c r="B18" s="5">
         <v>17</v>
@@ -8957,7 +8963,7 @@
       <c r="KI18" s="5"/>
       <c r="KJ18" s="5"/>
     </row>
-    <row r="19" ht="15.75" spans="1:296">
+    <row r="19" ht="15.5" spans="1:296">
       <c r="A19" s="5"/>
       <c r="B19" s="5">
         <v>18</v>
@@ -9318,7 +9324,7 @@
       <c r="KI19" s="5"/>
       <c r="KJ19" s="5"/>
     </row>
-    <row r="20" ht="15.75" spans="1:296">
+    <row r="20" ht="15.5" spans="1:296">
       <c r="A20" s="5"/>
       <c r="B20" s="5">
         <v>19</v>
@@ -9679,7 +9685,7 @@
       <c r="KI20" s="5"/>
       <c r="KJ20" s="5"/>
     </row>
-    <row r="21" ht="15.75" spans="1:296">
+    <row r="21" ht="15.5" spans="1:296">
       <c r="A21" s="5"/>
       <c r="B21" s="5">
         <v>20</v>
@@ -10040,7 +10046,7 @@
       <c r="KI21" s="5"/>
       <c r="KJ21" s="5"/>
     </row>
-    <row r="22" ht="15.75" spans="1:296">
+    <row r="22" ht="15.5" spans="1:296">
       <c r="A22" s="5"/>
       <c r="B22" s="5">
         <v>21</v>
@@ -10403,7 +10409,7 @@
       <c r="KI22" s="5"/>
       <c r="KJ22" s="5"/>
     </row>
-    <row r="23" ht="15.75" spans="1:296">
+    <row r="23" ht="15.5" spans="1:296">
       <c r="A23" s="5"/>
       <c r="B23" s="5">
         <v>22</v>
@@ -10762,7 +10768,7 @@
       <c r="KI23" s="5"/>
       <c r="KJ23" s="5"/>
     </row>
-    <row r="24" ht="15.75" spans="1:296">
+    <row r="24" ht="15.5" spans="1:296">
       <c r="A24" s="5"/>
       <c r="B24" s="5">
         <v>23</v>
@@ -11121,7 +11127,7 @@
       <c r="KI24" s="5"/>
       <c r="KJ24" s="5"/>
     </row>
-    <row r="25" ht="15.75" spans="1:296">
+    <row r="25" ht="15.5" spans="1:296">
       <c r="A25" s="5"/>
       <c r="B25" s="5">
         <v>24</v>
@@ -11484,7 +11490,7 @@
       <c r="KI25" s="5"/>
       <c r="KJ25" s="5"/>
     </row>
-    <row r="26" ht="15.75" spans="1:296">
+    <row r="26" ht="15.5" spans="1:296">
       <c r="A26" s="5"/>
       <c r="B26" s="5">
         <v>25</v>
@@ -11845,7 +11851,7 @@
       <c r="KI26" s="5"/>
       <c r="KJ26" s="5"/>
     </row>
-    <row r="27" ht="15.75" spans="1:296">
+    <row r="27" ht="15.5" spans="1:296">
       <c r="A27" s="5"/>
       <c r="B27" s="5">
         <v>26</v>
@@ -12206,7 +12212,7 @@
       <c r="KI27" s="5"/>
       <c r="KJ27" s="5"/>
     </row>
-    <row r="28" ht="31.5" spans="1:296">
+    <row r="28" ht="31" spans="1:296">
       <c r="A28" s="5"/>
       <c r="B28" s="5">
         <v>27</v>
@@ -12940,7 +12946,7 @@
       <c r="KI29" s="5"/>
       <c r="KJ29" s="5"/>
     </row>
-    <row r="30" ht="15.75" spans="1:296">
+    <row r="30" ht="15.5" spans="1:296">
       <c r="A30" s="5" t="s">
         <v>248</v>
       </c>
@@ -13650,7 +13656,7 @@
       <c r="KI31" s="5"/>
       <c r="KJ31" s="5"/>
     </row>
-    <row r="32" ht="15.75" spans="1:296">
+    <row r="32" ht="15.5" spans="1:296">
       <c r="A32" s="5" t="s">
         <v>258</v>
       </c>
@@ -13995,7 +14001,7 @@
       <c r="KI32" s="5"/>
       <c r="KJ32" s="5"/>
     </row>
-    <row r="33" ht="15.75" spans="1:296">
+    <row r="33" ht="15.5" spans="1:296">
       <c r="A33" s="5" t="s">
         <v>258</v>
       </c>
@@ -14340,7 +14346,7 @@
       <c r="KI33" s="5"/>
       <c r="KJ33" s="5"/>
     </row>
-    <row r="34" ht="15.75" spans="1:296">
+    <row r="34" ht="15.5" spans="1:296">
       <c r="A34" s="5" t="s">
         <v>267</v>
       </c>
@@ -14689,7 +14695,7 @@
       <c r="KI34" s="5"/>
       <c r="KJ34" s="5"/>
     </row>
-    <row r="35" ht="15.75" spans="1:296">
+    <row r="35" ht="15.5" spans="1:296">
       <c r="A35" s="5" t="s">
         <v>276</v>
       </c>
@@ -15038,7 +15044,7 @@
       <c r="KI35" s="5"/>
       <c r="KJ35" s="5"/>
     </row>
-    <row r="36" ht="15.75" spans="1:296">
+    <row r="36" ht="15.5" spans="1:296">
       <c r="A36" s="5" t="s">
         <v>279</v>
       </c>
@@ -15387,7 +15393,7 @@
       <c r="KI36" s="5"/>
       <c r="KJ36" s="5"/>
     </row>
-    <row r="37" ht="15.75" spans="1:296">
+    <row r="37" ht="15.5" spans="1:296">
       <c r="A37" s="5" t="s">
         <v>282</v>
       </c>
@@ -15735,7 +15741,7 @@
       <c r="KI37" s="5"/>
       <c r="KJ37" s="5"/>
     </row>
-    <row r="38" ht="15.75" spans="1:296">
+    <row r="38" ht="15.5" spans="1:296">
       <c r="A38" s="5"/>
       <c r="B38" s="5">
         <v>37</v>
@@ -16100,7 +16106,7 @@
       <c r="KI38" s="5"/>
       <c r="KJ38" s="5"/>
     </row>
-    <row r="39" ht="15.75" spans="1:296">
+    <row r="39" ht="15.5" spans="1:296">
       <c r="A39" s="5"/>
       <c r="B39" s="5">
         <v>38</v>
@@ -16465,7 +16471,7 @@
       <c r="KI39" s="5"/>
       <c r="KJ39" s="5"/>
     </row>
-    <row r="40" ht="63" spans="1:296">
+    <row r="40" ht="62" spans="1:296">
       <c r="A40" s="5"/>
       <c r="B40" s="5">
         <v>39</v>
@@ -16836,7 +16842,7 @@
       <c r="KI40" s="5"/>
       <c r="KJ40" s="5"/>
     </row>
-    <row r="41" ht="15.75" spans="1:296">
+    <row r="41" ht="15.5" spans="1:296">
       <c r="A41" s="10" t="s">
         <v>313</v>
       </c>
@@ -17191,7 +17197,7 @@
       <c r="KI41" s="5"/>
       <c r="KJ41" s="5"/>
     </row>
-    <row r="42" ht="15.75" spans="1:296">
+    <row r="42" ht="15.5" spans="1:296">
       <c r="A42" s="5"/>
       <c r="B42" s="5">
         <v>41</v>
@@ -17560,7 +17566,7 @@
       <c r="KI42" s="5"/>
       <c r="KJ42" s="5"/>
     </row>
-    <row r="43" ht="15.75" spans="1:296">
+    <row r="43" ht="15.5" spans="1:296">
       <c r="A43" s="5"/>
       <c r="B43" s="5">
         <v>42</v>
@@ -17925,7 +17931,7 @@
       <c r="KI43" s="5"/>
       <c r="KJ43" s="5"/>
     </row>
-    <row r="44" ht="15.75" spans="1:296">
+    <row r="44" ht="15.5" spans="1:296">
       <c r="A44" s="5" t="s">
         <v>334</v>
       </c>
@@ -18292,7 +18298,7 @@
       <c r="KI44" s="5"/>
       <c r="KJ44" s="5"/>
     </row>
-    <row r="45" ht="15.75" spans="1:296">
+    <row r="45" ht="15.5" spans="1:296">
       <c r="A45" s="5"/>
       <c r="B45" s="5">
         <v>44</v>
@@ -18657,7 +18663,7 @@
       <c r="KI45" s="5"/>
       <c r="KJ45" s="5"/>
     </row>
-    <row r="46" ht="15.75" spans="1:296">
+    <row r="46" ht="15.5" spans="1:296">
       <c r="A46" s="5"/>
       <c r="B46" s="5">
         <v>45</v>
@@ -19018,7 +19024,7 @@
       <c r="KI46" s="5"/>
       <c r="KJ46" s="5"/>
     </row>
-    <row r="47" ht="15.75" spans="1:296">
+    <row r="47" ht="15.5" spans="1:296">
       <c r="A47" s="5"/>
       <c r="B47" s="5">
         <v>46</v>
@@ -19379,7 +19385,7 @@
       <c r="KI47" s="5"/>
       <c r="KJ47" s="5"/>
     </row>
-    <row r="48" ht="15.75" spans="1:296">
+    <row r="48" ht="15.5" spans="1:296">
       <c r="A48" s="5"/>
       <c r="B48" s="5">
         <v>47</v>
@@ -19738,7 +19744,7 @@
       <c r="KI48" s="5"/>
       <c r="KJ48" s="5"/>
     </row>
-    <row r="49" ht="31.5" spans="1:296">
+    <row r="49" ht="31" spans="1:296">
       <c r="A49" s="5"/>
       <c r="B49" s="5">
         <v>48</v>
@@ -20096,7 +20102,7 @@
       <c r="KI49" s="5"/>
       <c r="KJ49" s="5"/>
     </row>
-    <row r="50" ht="15.75" spans="1:296">
+    <row r="50" ht="15.5" spans="1:296">
       <c r="A50" s="5"/>
       <c r="B50" s="5">
         <v>49</v>
@@ -20456,7 +20462,7 @@
       <c r="KI50" s="5"/>
       <c r="KJ50" s="5"/>
     </row>
-    <row r="51" ht="15.75" spans="1:296">
+    <row r="51" ht="15.5" spans="1:296">
       <c r="A51" s="5"/>
       <c r="B51" s="5">
         <v>50</v>
@@ -20820,7 +20826,7 @@
       <c r="KI51" s="5"/>
       <c r="KJ51" s="5"/>
     </row>
-    <row r="52" ht="31.5" spans="1:296">
+    <row r="52" ht="31" spans="1:296">
       <c r="A52" s="5"/>
       <c r="B52" s="5">
         <v>51</v>
@@ -21176,7 +21182,7 @@
       <c r="KI52" s="5"/>
       <c r="KJ52" s="5"/>
     </row>
-    <row r="53" ht="15.75" spans="1:296">
+    <row r="53" ht="15.5" spans="1:296">
       <c r="A53" s="5"/>
       <c r="B53" s="5">
         <v>52</v>
@@ -21197,11 +21203,21 @@
       <c r="H53" s="9">
         <v>0</v>
       </c>
-      <c r="I53" s="5"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
+      <c r="I53" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="J53" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="L53" s="5">
+        <v>2015</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>323</v>
+      </c>
       <c r="N53" s="5">
         <v>1</v>
       </c>
@@ -21228,10 +21244,12 @@
         <v>51</v>
       </c>
       <c r="AJ53" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AK53" s="12"/>
-      <c r="AL53" s="5"/>
+      <c r="AL53" s="5" t="s">
+        <v>401</v>
+      </c>
       <c r="AM53" s="5"/>
       <c r="AN53" s="5"/>
       <c r="AO53" s="5"/>
@@ -21491,16 +21509,16 @@
       <c r="KI53" s="5"/>
       <c r="KJ53" s="5"/>
     </row>
-    <row r="54" ht="15.75" spans="1:296">
+    <row r="54" ht="15.5" spans="1:296">
       <c r="A54" s="5"/>
       <c r="B54" s="5">
         <v>53</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>63</v>
@@ -21515,13 +21533,13 @@
         <v>0</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L54" s="5">
         <v>2024</v>
@@ -21549,12 +21567,12 @@
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
       <c r="Y54" s="5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
       <c r="AB54" s="5" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AC54" s="5">
         <v>40</v>
@@ -21572,16 +21590,16 @@
         <v>40</v>
       </c>
       <c r="AH54" s="5" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AI54" s="5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AJ54" s="5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AK54" s="16" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AL54" s="5" t="s">
         <v>114</v>
@@ -21845,16 +21863,16 @@
       <c r="KI54" s="5"/>
       <c r="KJ54" s="5"/>
     </row>
-    <row r="55" ht="15.75" spans="1:296">
+    <row r="55" ht="15.5" spans="1:296">
       <c r="A55" s="5"/>
       <c r="B55" s="5">
         <v>54</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>63</v>
@@ -21869,13 +21887,13 @@
         <v>0</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K55" s="15" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L55" s="5">
         <v>2024</v>
@@ -21903,12 +21921,12 @@
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
       <c r="Y55" s="5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
       <c r="AB55" s="5" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AC55" s="5">
         <v>40</v>
@@ -21926,16 +21944,16 @@
         <v>40</v>
       </c>
       <c r="AH55" s="5" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AI55" s="5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AJ55" s="5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AK55" s="16" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AL55" s="5" t="s">
         <v>114</v>
@@ -22199,16 +22217,16 @@
       <c r="KI55" s="5"/>
       <c r="KJ55" s="5"/>
     </row>
-    <row r="56" ht="15.75" spans="1:296">
+    <row r="56" ht="15.5" spans="1:296">
       <c r="A56" s="5"/>
       <c r="B56" s="5">
         <v>55</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>63</v>
@@ -22252,10 +22270,10 @@
         <v>155</v>
       </c>
       <c r="AJ56" s="5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AK56" s="12" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AL56" s="5" t="s">
         <v>179</v>
@@ -22519,16 +22537,16 @@
       <c r="KI56" s="5"/>
       <c r="KJ56" s="5"/>
     </row>
-    <row r="57" ht="15.75" spans="1:296">
+    <row r="57" ht="15.5" spans="1:296">
       <c r="A57" s="5"/>
       <c r="B57" s="5">
         <v>56</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>63</v>
@@ -22543,19 +22561,19 @@
         <v>0</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L57" s="5">
         <v>2024</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N57" s="5">
         <v>1</v>
@@ -22564,7 +22582,7 @@
         <v>1</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q57" s="5" t="s">
         <v>95</v>
@@ -22589,13 +22607,13 @@
       <c r="AG57" s="5"/>
       <c r="AH57" s="5"/>
       <c r="AI57" s="5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AJ57" s="5" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AK57" s="12" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AL57" s="5" t="s">
         <v>114</v>
@@ -22859,16 +22877,16 @@
       <c r="KI57" s="5"/>
       <c r="KJ57" s="5"/>
     </row>
-    <row r="58" ht="15.75" spans="1:296">
+    <row r="58" ht="15.5" spans="1:296">
       <c r="A58" s="5"/>
       <c r="B58" s="5">
         <v>57</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -22902,7 +22920,7 @@
       <c r="AH58" s="5"/>
       <c r="AI58" s="5"/>
       <c r="AJ58" s="5" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AK58" s="12"/>
       <c r="AL58" s="5"/>
@@ -23165,16 +23183,16 @@
       <c r="KI58" s="5"/>
       <c r="KJ58" s="5"/>
     </row>
-    <row r="59" ht="15.75" spans="1:296">
+    <row r="59" ht="15.5" spans="1:296">
       <c r="A59" s="5"/>
       <c r="B59" s="5">
         <v>58</v>
       </c>
       <c r="C59" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>428</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>426</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -23208,7 +23226,7 @@
       <c r="AH59" s="5"/>
       <c r="AI59" s="5"/>
       <c r="AJ59" s="5" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AK59" s="12"/>
       <c r="AL59" s="5"/>
@@ -23471,16 +23489,16 @@
       <c r="KI59" s="5"/>
       <c r="KJ59" s="5"/>
     </row>
-    <row r="60" ht="15.75" spans="1:296">
+    <row r="60" ht="15.5" spans="1:296">
       <c r="A60" s="5"/>
       <c r="B60" s="5">
         <v>59</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -23775,7 +23793,7 @@
       <c r="KI60" s="5"/>
       <c r="KJ60" s="5"/>
     </row>
-    <row r="61" ht="15.75" spans="1:296">
+    <row r="61" ht="15.5" spans="1:296">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -24073,7 +24091,7 @@
       <c r="KI61" s="5"/>
       <c r="KJ61" s="5"/>
     </row>
-    <row r="62" ht="15.75" spans="1:296">
+    <row r="62" ht="15.5" spans="1:296">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -24371,7 +24389,7 @@
       <c r="KI62" s="5"/>
       <c r="KJ62" s="5"/>
     </row>
-    <row r="63" ht="15.75" spans="1:296">
+    <row r="63" ht="15.5" spans="1:296">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -24669,7 +24687,7 @@
       <c r="KI63" s="5"/>
       <c r="KJ63" s="5"/>
     </row>
-    <row r="64" ht="15.75" spans="1:296">
+    <row r="64" ht="15.5" spans="1:296">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -24967,7 +24985,7 @@
       <c r="KI64" s="5"/>
       <c r="KJ64" s="5"/>
     </row>
-    <row r="65" ht="15.75" spans="1:296">
+    <row r="65" ht="15.5" spans="1:296">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -25265,7 +25283,7 @@
       <c r="KI65" s="5"/>
       <c r="KJ65" s="5"/>
     </row>
-    <row r="66" ht="15.75" spans="1:296">
+    <row r="66" ht="15.5" spans="1:296">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -25563,7 +25581,7 @@
       <c r="KI66" s="5"/>
       <c r="KJ66" s="5"/>
     </row>
-    <row r="67" ht="15.75" spans="1:296">
+    <row r="67" ht="15.5" spans="1:296">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -25861,7 +25879,7 @@
       <c r="KI67" s="5"/>
       <c r="KJ67" s="5"/>
     </row>
-    <row r="68" ht="15.75" spans="1:37">
+    <row r="68" ht="15.5" spans="1:37">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -25879,7 +25897,7 @@
       <c r="R68" s="5"/>
       <c r="AK68" s="12"/>
     </row>
-    <row r="69" ht="15.75" spans="13:13">
+    <row r="69" ht="15.5" spans="13:13">
       <c r="M69" s="5"/>
     </row>
   </sheetData>
@@ -25949,6 +25967,7 @@
     <hyperlink ref="AK56" r:id="rId36" display="https://osf.io/br98c/" tooltip="https://osf.io/br98c/"/>
     <hyperlink ref="J57" r:id="rId37" display="n.kirk@abertay.ac.uk"/>
     <hyperlink ref="AK57" r:id="rId38" display="https://osf.io/hr96d/"/>
+    <hyperlink ref="J53" r:id="rId12" display="jie.sui@abdn.ac.uk"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Dataset_inf.xlsx
+++ b/Dataset_inf.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="433">
   <si>
     <t>Note</t>
   </si>
@@ -152,6 +152,9 @@
     <t>P5</t>
   </si>
   <si>
+    <t>✅</t>
+  </si>
+  <si>
     <t>Merryn D. Constable</t>
   </si>
   <si>
@@ -219,9 +222,6 @@
   </si>
   <si>
     <t>P6</t>
-  </si>
-  <si>
-    <t>✅</t>
   </si>
   <si>
     <t>Constable &amp; Knoblich</t>
@@ -2218,13 +2218,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2596,11 +2596,11 @@
   <dimension ref="A1:KJ69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K53" sqref="K53"/>
+      <selection pane="bottomRight" activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2769,30 +2769,32 @@
       <c r="D2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6">
+      <c r="E2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="7">
         <v>1</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="8">
         <v>0</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>0</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L2" s="5">
         <v>2019</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" s="5">
         <v>1</v>
@@ -2804,16 +2806,16 @@
         <v>14</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S2" s="5">
         <v>20</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U2" s="5">
         <v>96</v>
@@ -2825,13 +2827,13 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC2" s="5">
         <v>28</v>
@@ -2850,16 +2852,16 @@
         <v>28</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK2" s="12" t="s">
         <v>53</v>
+      </c>
+      <c r="AK2" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
@@ -3129,31 +3131,33 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6">
+      <c r="E3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>0</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>0</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="12"/>
       <c r="K3" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" s="5">
         <v>2019</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3" s="5">
         <v>2</v>
@@ -3165,16 +3169,16 @@
         <v>14</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S3" s="5">
         <v>20</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U3" s="5">
         <v>96</v>
@@ -3186,13 +3190,13 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC3" s="5">
         <v>28</v>
@@ -3211,16 +3215,16 @@
         <v>28</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AK3" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL3" s="5"/>
       <c r="AM3" s="5"/>
@@ -3490,31 +3494,33 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6">
+      <c r="E4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="8">
         <v>0</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>0</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="12"/>
       <c r="K4" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L4" s="5">
         <v>2019</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N4" s="5">
         <v>3</v>
@@ -3526,16 +3532,16 @@
         <v>14</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S4" s="5">
         <v>20</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U4" s="5">
         <v>96</v>
@@ -3547,13 +3553,13 @@
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC4" s="5">
         <v>28</v>
@@ -3572,16 +3578,16 @@
         <v>28</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ4" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AK4" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL4" s="5"/>
       <c r="AM4" s="5"/>
@@ -3851,31 +3857,33 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6">
+      <c r="E5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <v>0</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="8">
         <v>0</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="12"/>
       <c r="K5" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L5" s="5">
         <v>2019</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N5" s="5">
         <v>4</v>
@@ -3884,19 +3892,19 @@
         <v>4</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S5" s="5">
         <v>50</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U5" s="5">
         <v>80</v>
@@ -3908,13 +3916,13 @@
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC5" s="5">
         <v>40</v>
@@ -3934,13 +3942,13 @@
       </c>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ5" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AK5" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL5" s="5"/>
       <c r="AM5" s="5"/>
@@ -4210,28 +4218,28 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="6">
+      <c r="E6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="8">
         <v>0</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="8">
         <v>0</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>64</v>
@@ -4261,7 +4269,7 @@
         <v>24</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U6" s="5">
         <v>240</v>
@@ -4283,7 +4291,7 @@
         <v>71</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC6" s="5">
         <v>92</v>
@@ -4305,7 +4313,7 @@
         <v>72</v>
       </c>
       <c r="AI6" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ6" s="5" t="s">
         <v>73</v>
@@ -4584,14 +4592,16 @@
       <c r="D7" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6">
+      <c r="E7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <v>0</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="8">
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
@@ -4626,7 +4636,7 @@
         <v>48</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U7" s="5">
         <v>312</v>
@@ -4666,7 +4676,7 @@
       </c>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ7" s="5" t="s">
         <v>86</v>
@@ -4947,16 +4957,16 @@
       <c r="D8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="E8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="5" t="s">
@@ -4990,16 +5000,16 @@
         <v>67</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U8" s="5">
         <v>100</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
@@ -5010,7 +5020,7 @@
         <v>97</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC8" s="5">
         <v>31</v>
@@ -5031,7 +5041,7 @@
         <v>98</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ8" s="5" t="s">
         <v>99</v>
@@ -5311,13 +5321,13 @@
         <v>102</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <v>1</v>
       </c>
       <c r="G9" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="8">
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
@@ -5352,7 +5362,7 @@
         <v>12</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U9" s="5">
         <v>960</v>
@@ -5374,7 +5384,7 @@
         <v>110</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC9" s="5">
         <v>40</v>
@@ -5674,24 +5684,24 @@
       <c r="D10" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6">
+      <c r="E10" s="6"/>
+      <c r="F10" s="7">
         <v>1</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="8">
         <v>0</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>117</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L10" s="5">
         <v>2020</v>
@@ -5716,7 +5726,7 @@
         <v>8</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U10" s="5">
         <v>192</v>
@@ -5734,7 +5744,7 @@
         <v>71</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC10" s="5">
         <v>56</v>
@@ -6037,16 +6047,16 @@
       <c r="D11" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="E11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="8">
         <v>0</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="8">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="s">
@@ -6081,13 +6091,13 @@
         <v>10</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U11" s="5">
         <v>144</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W11" s="5" t="s">
         <v>131</v>
@@ -6123,7 +6133,7 @@
       </c>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ11" s="5" t="s">
         <v>133</v>
@@ -6404,16 +6414,16 @@
       <c r="D12" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="E12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="7">
         <v>1</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="8">
         <v>0</v>
       </c>
       <c r="I12" s="5"/>
@@ -6444,7 +6454,7 @@
         <v>20</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U12" s="5">
         <v>100</v>
@@ -6488,7 +6498,7 @@
         <v>139</v>
       </c>
       <c r="AI12" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ12" s="5" t="s">
         <v>133</v>
@@ -6769,16 +6779,16 @@
       <c r="D13" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="E13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="7">
         <v>1</v>
       </c>
       <c r="G13" t="s">
         <v>103</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="8">
         <v>0</v>
       </c>
       <c r="I13" s="5" t="s">
@@ -6815,7 +6825,7 @@
         <v>48</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U13" s="5">
         <v>144</v>
@@ -6857,7 +6867,7 @@
         <v>151</v>
       </c>
       <c r="AI13" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ13" s="5" t="s">
         <v>152</v>
@@ -7140,16 +7150,16 @@
       <c r="D14" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="E14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="7">
         <v>1</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
@@ -7186,7 +7196,7 @@
         <v>24</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U14" s="5">
         <v>672</v>
@@ -7208,7 +7218,7 @@
         <v>164</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC14" s="5">
         <v>19</v>
@@ -7510,16 +7520,16 @@
       <c r="D15" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="E15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7">
         <v>1</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="8">
         <v>0</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="7">
         <v>1</v>
       </c>
       <c r="I15" s="5"/>
@@ -7552,7 +7562,7 @@
         <v>24</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U15" s="5">
         <v>672</v>
@@ -7574,7 +7584,7 @@
         <v>164</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC15" s="5">
         <v>20</v>
@@ -7877,16 +7887,16 @@
       <c r="D16" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="E16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="7">
         <v>1</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="8">
         <v>0</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -7923,7 +7933,7 @@
         <v>12</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U16" s="5">
         <v>360</v>
@@ -7943,7 +7953,7 @@
         <v>175</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC16" s="5">
         <v>30</v>
@@ -7965,7 +7975,7 @@
         <v>176</v>
       </c>
       <c r="AI16" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ16" s="5" t="s">
         <v>177</v>
@@ -8246,16 +8256,16 @@
       <c r="D17" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="E17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="7">
         <v>1</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="8">
         <v>0</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="8">
         <v>0</v>
       </c>
       <c r="I17" s="5"/>
@@ -8288,7 +8298,7 @@
         <v>12</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U17" s="5">
         <v>360</v>
@@ -8306,7 +8316,7 @@
         <v>175</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC17" s="5">
         <v>30</v>
@@ -8328,7 +8338,7 @@
         <v>180</v>
       </c>
       <c r="AI17" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ17" s="5" t="s">
         <v>177</v>
@@ -8609,16 +8619,16 @@
       <c r="D18" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="7">
         <v>1</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="8">
         <v>0</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="8">
         <v>0</v>
       </c>
       <c r="I18" s="5" t="s">
@@ -8693,7 +8703,7 @@
       </c>
       <c r="AH18" s="5"/>
       <c r="AI18" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ18" s="5" t="s">
         <v>189</v>
@@ -8974,16 +8984,16 @@
       <c r="D19" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="E19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7">
         <v>1</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="8">
         <v>0</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="8">
         <v>0</v>
       </c>
       <c r="I19" s="5"/>
@@ -9054,7 +9064,7 @@
       </c>
       <c r="AH19" s="5"/>
       <c r="AI19" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ19" s="5" t="s">
         <v>189</v>
@@ -9335,16 +9345,16 @@
       <c r="D20" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="E20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="7">
         <v>1</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="8">
         <v>0</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="8">
         <v>0</v>
       </c>
       <c r="I20" s="5"/>
@@ -9415,7 +9425,7 @@
       </c>
       <c r="AH20" s="5"/>
       <c r="AI20" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ20" s="5" t="s">
         <v>189</v>
@@ -9696,16 +9706,16 @@
       <c r="D21" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="E21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="7">
         <v>1</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="8">
         <v>0</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="8">
         <v>0</v>
       </c>
       <c r="I21" s="5"/>
@@ -9776,7 +9786,7 @@
       </c>
       <c r="AH21" s="5"/>
       <c r="AI21" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ21" s="5" t="s">
         <v>189</v>
@@ -10058,13 +10068,13 @@
         <v>198</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="6">
+      <c r="F22" s="7">
         <v>1</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="8">
         <v>0</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="8">
         <v>0</v>
       </c>
       <c r="I22" s="5" t="s">
@@ -10099,13 +10109,13 @@
         <v>84</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U22" s="5">
         <v>128</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
@@ -10141,7 +10151,7 @@
         <v>204</v>
       </c>
       <c r="AI22" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ22" s="5" t="s">
         <v>205</v>
@@ -10421,13 +10431,13 @@
         <v>198</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="6">
+      <c r="F23" s="7">
         <v>1</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="8">
         <v>0</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="8">
         <v>0</v>
       </c>
       <c r="I23" s="5"/>
@@ -10458,13 +10468,13 @@
         <v>24</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U23" s="5">
         <v>240</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
@@ -10500,7 +10510,7 @@
         <v>208</v>
       </c>
       <c r="AI23" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ23" s="5" t="s">
         <v>205</v>
@@ -10780,13 +10790,13 @@
         <v>198</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="6">
+      <c r="F24" s="7">
         <v>1</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="8">
         <v>0</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="8">
         <v>0</v>
       </c>
       <c r="I24" s="5"/>
@@ -10817,13 +10827,13 @@
         <v>24</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U24" s="5">
         <v>240</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
@@ -10859,7 +10869,7 @@
         <v>210</v>
       </c>
       <c r="AI24" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ24" s="5" t="s">
         <v>205</v>
@@ -11138,16 +11148,16 @@
       <c r="D25" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="6">
+      <c r="E25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="7">
         <v>1</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="8">
         <v>0</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="8">
         <v>0</v>
       </c>
       <c r="I25" s="5" t="s">
@@ -11182,7 +11192,7 @@
         <v>10</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U25" s="5">
         <v>200</v>
@@ -11200,7 +11210,7 @@
         <v>217</v>
       </c>
       <c r="AB25" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC25" s="5">
         <v>20</v>
@@ -11222,7 +11232,7 @@
         <v>218</v>
       </c>
       <c r="AI25" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ25" s="5" t="s">
         <v>219</v>
@@ -11501,16 +11511,16 @@
       <c r="D26" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="6">
+      <c r="E26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="7">
         <v>1</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="8">
         <v>0</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="8">
         <v>0</v>
       </c>
       <c r="I26" s="5"/>
@@ -11541,7 +11551,7 @@
         <v>10</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U26" s="5">
         <v>400</v>
@@ -11561,7 +11571,7 @@
         <v>217</v>
       </c>
       <c r="AB26" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC26" s="5">
         <v>24</v>
@@ -11583,7 +11593,7 @@
         <v>223</v>
       </c>
       <c r="AI26" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ26" s="5" t="s">
         <v>219</v>
@@ -11862,16 +11872,16 @@
       <c r="D27" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="6">
+      <c r="E27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="7">
         <v>1</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="8">
         <v>0</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="8">
         <v>0</v>
       </c>
       <c r="I27" s="5"/>
@@ -11902,7 +11912,7 @@
         <v>10</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U27" s="5">
         <v>400</v>
@@ -11922,7 +11932,7 @@
         <v>217</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC27" s="5">
         <v>25</v>
@@ -11944,7 +11954,7 @@
         <v>226</v>
       </c>
       <c r="AI27" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ27" s="5" t="s">
         <v>219</v>
@@ -12223,16 +12233,16 @@
       <c r="D28" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="6">
+      <c r="E28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="7">
         <v>1</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="8">
         <v>0</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="8">
         <v>0</v>
       </c>
       <c r="I28" s="5" t="s">
@@ -12269,7 +12279,7 @@
         <v>12</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U28" s="5">
         <v>360</v>
@@ -12311,7 +12321,7 @@
       </c>
       <c r="AH28" s="5"/>
       <c r="AI28" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ28" s="5" t="s">
         <v>235</v>
@@ -12592,16 +12602,16 @@
       <c r="D29" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="E29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="7">
         <v>1</v>
       </c>
       <c r="G29" t="s">
         <v>103</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="8">
         <v>0</v>
       </c>
       <c r="I29" s="5" t="s">
@@ -12636,13 +12646,13 @@
         <v>1</v>
       </c>
       <c r="T29" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U29" s="5">
         <v>64</v>
       </c>
       <c r="V29" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
@@ -12656,7 +12666,7 @@
         <v>244</v>
       </c>
       <c r="AB29" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC29" s="5">
         <v>302</v>
@@ -12959,16 +12969,16 @@
       <c r="D30" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="6">
+      <c r="E30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="7">
         <v>1</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="8">
         <v>0</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="8">
         <v>0</v>
       </c>
       <c r="I30" s="5" t="s">
@@ -12998,10 +13008,10 @@
         <v>67</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U30" s="5">
         <v>90</v>
@@ -13041,7 +13051,7 @@
         <v>254</v>
       </c>
       <c r="AI30" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ30" s="5" t="s">
         <v>255</v>
@@ -13324,16 +13334,16 @@
       <c r="D31" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="6">
+      <c r="E31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7">
         <v>1</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="8">
         <v>0</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="8">
         <v>0</v>
       </c>
       <c r="I31" s="5"/>
@@ -13349,7 +13359,7 @@
         <v>1</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P31" s="5" t="s">
         <v>14</v>
@@ -13390,7 +13400,7 @@
       </c>
       <c r="AH31" s="5"/>
       <c r="AI31" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ31" s="5" t="s">
         <v>262</v>
@@ -13669,16 +13679,16 @@
       <c r="D32" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="E32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="7">
         <v>1</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="8">
         <v>0</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="8">
         <v>0</v>
       </c>
       <c r="I32" s="5"/>
@@ -13694,7 +13704,7 @@
         <v>1</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P32" s="5" t="s">
         <v>14</v>
@@ -13735,7 +13745,7 @@
       </c>
       <c r="AH32" s="5"/>
       <c r="AI32" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ32" s="5" t="s">
         <v>265</v>
@@ -14014,16 +14024,16 @@
       <c r="D33" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="6">
+      <c r="E33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="7">
         <v>1</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="8">
         <v>0</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="8">
         <v>0</v>
       </c>
       <c r="I33" s="5"/>
@@ -14039,7 +14049,7 @@
         <v>2</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P33" s="5" t="s">
         <v>14</v>
@@ -14359,16 +14369,16 @@
       <c r="D34" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="6">
+      <c r="E34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="7">
         <v>1</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="8">
         <v>0</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="8">
         <v>0</v>
       </c>
       <c r="I34" s="5"/>
@@ -14429,7 +14439,7 @@
       </c>
       <c r="AH34" s="5"/>
       <c r="AI34" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ34" s="5" t="s">
         <v>275</v>
@@ -14708,16 +14718,16 @@
       <c r="D35" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="6">
+      <c r="E35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7">
         <v>1</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="8">
         <v>0</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="8">
         <v>0</v>
       </c>
       <c r="I35" s="5"/>
@@ -14778,7 +14788,7 @@
       </c>
       <c r="AH35" s="5"/>
       <c r="AI35" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ35" s="5" t="s">
         <v>275</v>
@@ -15057,16 +15067,16 @@
       <c r="D36" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="6">
+      <c r="E36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="7">
         <v>1</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="8">
         <v>0</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="8">
         <v>0</v>
       </c>
       <c r="I36" s="5"/>
@@ -15127,7 +15137,7 @@
       </c>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ36" s="5" t="s">
         <v>275</v>
@@ -15406,16 +15416,16 @@
       <c r="D37" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" s="6">
+      <c r="E37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="7">
         <v>1</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="8">
         <v>0</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="8">
         <v>0</v>
       </c>
       <c r="I37" s="5"/>
@@ -15476,7 +15486,7 @@
       </c>
       <c r="AH37" s="5"/>
       <c r="AI37" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ37" s="5" t="s">
         <v>275</v>
@@ -15752,16 +15762,16 @@
       <c r="D38" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" s="6">
+      <c r="E38" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="7">
         <v>1</v>
       </c>
       <c r="G38" s="9">
         <v>0</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="7">
         <v>1</v>
       </c>
       <c r="I38" s="5" t="s">
@@ -15836,7 +15846,7 @@
         <v>291</v>
       </c>
       <c r="AI38" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ38" s="5" t="s">
         <v>292</v>
@@ -16117,13 +16127,13 @@
       <c r="D39" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F39" s="6">
+      <c r="E39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="7">
         <v>1</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="7">
         <v>1</v>
       </c>
       <c r="H39" s="9">
@@ -16160,10 +16170,10 @@
         <v>67</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T39" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U39" s="5">
         <v>60</v>
@@ -16181,7 +16191,7 @@
         <v>300</v>
       </c>
       <c r="AB39" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC39" s="5">
         <v>144</v>
@@ -16482,16 +16492,16 @@
       <c r="D40" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" s="6">
+      <c r="E40" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="7">
         <v>1</v>
       </c>
       <c r="G40" s="9">
         <v>0</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="7">
         <v>1</v>
       </c>
       <c r="I40" s="5" t="s">
@@ -16525,10 +16535,10 @@
         <v>67</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U40" s="5">
         <v>360</v>
@@ -16552,7 +16562,7 @@
         <v>274</v>
       </c>
       <c r="AB40" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC40" s="5">
         <v>109</v>
@@ -16572,7 +16582,7 @@
       </c>
       <c r="AH40" s="5"/>
       <c r="AI40" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ40" s="5" t="s">
         <v>310</v>
@@ -16855,10 +16865,10 @@
       <c r="D41" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F41" s="6">
+      <c r="E41" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="7">
         <v>1</v>
       </c>
       <c r="G41" s="9">
@@ -16933,7 +16943,7 @@
         <v>317</v>
       </c>
       <c r="AI41" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ41" s="5"/>
       <c r="AK41" s="5"/>
@@ -17208,10 +17218,10 @@
       <c r="D42" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="6">
+      <c r="E42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="7">
         <v>1</v>
       </c>
       <c r="G42" s="9">
@@ -17577,10 +17587,10 @@
       <c r="D43" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F43" s="6">
+      <c r="E43" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="7">
         <v>1</v>
       </c>
       <c r="G43" s="9">
@@ -17944,13 +17954,13 @@
       <c r="D44" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="E44" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" s="6">
+      <c r="E44" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="7">
         <v>1</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="7">
         <v>1</v>
       </c>
       <c r="H44" s="9">
@@ -17987,10 +17997,10 @@
         <v>67</v>
       </c>
       <c r="S44" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T44" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U44" s="5">
         <v>360</v>
@@ -18010,7 +18020,7 @@
         <v>341</v>
       </c>
       <c r="AB44" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC44" s="5">
         <v>328</v>
@@ -18028,7 +18038,7 @@
       </c>
       <c r="AH44" s="5"/>
       <c r="AI44" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ44" s="5" t="s">
         <v>342</v>
@@ -18309,10 +18319,10 @@
       <c r="D45" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F45" s="6">
+      <c r="E45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="7">
         <v>1</v>
       </c>
       <c r="G45" s="9">
@@ -18371,7 +18381,7 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
       <c r="AB45" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC45" s="5">
         <v>23</v>
@@ -18393,7 +18403,7 @@
         <v>348</v>
       </c>
       <c r="AI45" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ45" s="5" t="s">
         <v>349</v>
@@ -18674,10 +18684,10 @@
       <c r="D46" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F46" s="6">
+      <c r="E46" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="7">
         <v>1</v>
       </c>
       <c r="G46" s="9">
@@ -18732,7 +18742,7 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
       <c r="AB46" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC46" s="5">
         <v>21</v>
@@ -18754,7 +18764,7 @@
         <v>348</v>
       </c>
       <c r="AI46" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ46" s="5" t="s">
         <v>349</v>
@@ -19035,10 +19045,10 @@
       <c r="D47" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F47" s="6">
+      <c r="E47" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="7">
         <v>1</v>
       </c>
       <c r="G47" s="9">
@@ -19093,7 +19103,7 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
       <c r="AB47" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC47" s="5">
         <v>18</v>
@@ -19115,7 +19125,7 @@
         <v>348</v>
       </c>
       <c r="AI47" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ47" s="5" t="s">
         <v>349</v>
@@ -19396,10 +19406,10 @@
       <c r="D48" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F48" s="6">
+      <c r="E48" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="7">
         <v>1</v>
       </c>
       <c r="G48" s="9">
@@ -19440,13 +19450,13 @@
         <v>12</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U48" s="5">
         <v>96</v>
       </c>
       <c r="V48" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
@@ -19456,7 +19466,7 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
       <c r="AB48" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC48" s="5">
         <v>380</v>
@@ -19474,7 +19484,7 @@
       </c>
       <c r="AH48" s="5"/>
       <c r="AI48" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ48" s="5" t="s">
         <v>357</v>
@@ -19755,10 +19765,10 @@
       <c r="D49" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F49" s="6">
+      <c r="E49" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="7">
         <v>1</v>
       </c>
       <c r="G49" s="11" t="s">
@@ -19798,7 +19808,7 @@
         <v>67</v>
       </c>
       <c r="S49" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T49" s="5">
         <v>3</v>
@@ -20113,16 +20123,16 @@
       <c r="D50" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F50" s="6">
+      <c r="E50" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="7">
         <v>1</v>
       </c>
       <c r="G50" s="9">
         <v>0</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="7">
         <v>1</v>
       </c>
       <c r="I50" s="15" t="s">
@@ -20159,7 +20169,7 @@
         <v>12</v>
       </c>
       <c r="T50" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U50" s="5">
         <v>960</v>
@@ -20192,7 +20202,7 @@
         <v>373</v>
       </c>
       <c r="AI50" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ50" s="5" t="s">
         <v>374</v>
@@ -20473,10 +20483,10 @@
       <c r="D51" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="E51" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F51" s="6">
+      <c r="E51" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" s="7">
         <v>1</v>
       </c>
       <c r="G51" s="9">
@@ -20556,7 +20566,7 @@
         <v>383</v>
       </c>
       <c r="AI51" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ51" s="5" t="s">
         <v>384</v>
@@ -20837,16 +20847,16 @@
       <c r="D52" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="E52" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F52" s="6">
+      <c r="E52" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="7">
         <v>1</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="7">
         <v>1</v>
       </c>
       <c r="I52" s="5" t="s">
@@ -20912,7 +20922,7 @@
         <v>393</v>
       </c>
       <c r="AI52" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ52" s="5" t="s">
         <v>394</v>
@@ -21193,8 +21203,10 @@
       <c r="D53" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="6">
+      <c r="E53" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="7">
         <v>1</v>
       </c>
       <c r="G53" s="9">
@@ -21241,7 +21253,7 @@
       <c r="AF53" s="5"/>
       <c r="AG53" s="5"/>
       <c r="AI53" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ53" s="5" t="s">
         <v>400</v>
@@ -21520,10 +21532,10 @@
       <c r="D54" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E54" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F54" s="6">
+      <c r="E54" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="7">
         <v>1</v>
       </c>
       <c r="G54" s="9">
@@ -21874,10 +21886,10 @@
       <c r="D55" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E55" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F55" s="6">
+      <c r="E55" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="7">
         <v>1</v>
       </c>
       <c r="G55" s="9">
@@ -22228,16 +22240,16 @@
       <c r="D56" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F56" s="6">
+      <c r="E56" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="7">
         <v>1</v>
       </c>
       <c r="G56" s="9">
         <v>0</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56" s="7">
         <v>1</v>
       </c>
       <c r="I56" s="5"/>
@@ -22548,10 +22560,10 @@
       <c r="D57" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="E57" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F57" s="6">
+      <c r="E57" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="7">
         <v>1</v>
       </c>
       <c r="G57" s="9">
